--- a/collected/Meat.xlsx
+++ b/collected/Meat.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,9 @@
       <c r="E1" t="str">
         <v>SubCategory</v>
       </c>
+      <c r="F1" t="str">
+        <v>Status</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -408,13 +411,16 @@
         <v>Organic St Louis Side Ribs  2.5lb</v>
       </c>
       <c r="C2" t="str">
-        <v>$6.99</v>
+        <v>$7.98</v>
       </c>
       <c r="D2" t="str">
         <v>Meat</v>
       </c>
       <c r="E2" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F2" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="3">
@@ -433,6 +439,9 @@
       <c r="E3" t="str">
         <v>Pork</v>
       </c>
+      <c r="F3" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -450,6 +459,9 @@
       <c r="E4" t="str">
         <v>Pork</v>
       </c>
+      <c r="F4" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -459,13 +471,16 @@
         <v>Pork Shoulder Butt(1Pcs/Around 2 Lbs)</v>
       </c>
       <c r="C5" t="str">
-        <v>$2.39</v>
+        <v>$3.99</v>
       </c>
       <c r="D5" t="str">
         <v>Meat</v>
       </c>
       <c r="E5" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F5" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="6">
@@ -484,6 +499,9 @@
       <c r="E6" t="str">
         <v>Pork</v>
       </c>
+      <c r="F6" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -493,13 +511,16 @@
         <v>Pork Belly Boneless(1Pcs/Around 2 Lbs)</v>
       </c>
       <c r="C7" t="str">
-        <v>$5.58</v>
+        <v>$6.99</v>
       </c>
       <c r="D7" t="str">
         <v>Meat</v>
       </c>
       <c r="E7" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F7" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="8">
@@ -518,6 +539,9 @@
       <c r="E8" t="str">
         <v>Pork</v>
       </c>
+      <c r="F8" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -535,6 +559,9 @@
       <c r="E9" t="str">
         <v>Pork</v>
       </c>
+      <c r="F9" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -552,6 +579,9 @@
       <c r="E10" t="str">
         <v>Pork</v>
       </c>
+      <c r="F10" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -569,6 +599,9 @@
       <c r="E11" t="str">
         <v>Pork</v>
       </c>
+      <c r="F11" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -586,6 +619,9 @@
       <c r="E12" t="str">
         <v>Pork</v>
       </c>
+      <c r="F12" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -603,6 +639,9 @@
       <c r="E13" t="str">
         <v>Pork</v>
       </c>
+      <c r="F13" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -612,13 +651,16 @@
         <v>Pork Side Ribs- Centre Cut 3lb</v>
       </c>
       <c r="C14" t="str">
-        <v>$5.99</v>
+        <v>$6.99</v>
       </c>
       <c r="D14" t="str">
         <v>Meat</v>
       </c>
       <c r="E14" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F14" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="15">
@@ -629,13 +671,16 @@
         <v>Pork Jowl-Polished 2.4lb</v>
       </c>
       <c r="C15" t="str">
-        <v>$10.98</v>
+        <v>$11.97</v>
       </c>
       <c r="D15" t="str">
         <v>Meat</v>
       </c>
       <c r="E15" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F15" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="16">
@@ -654,6 +699,9 @@
       <c r="E16" t="str">
         <v>Pork</v>
       </c>
+      <c r="F16" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -671,6 +719,9 @@
       <c r="E17" t="str">
         <v>Pork</v>
       </c>
+      <c r="F17" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -688,6 +739,9 @@
       <c r="E18" t="str">
         <v>Pork</v>
       </c>
+      <c r="F18" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -697,13 +751,16 @@
         <v>Pork Back Ribs (whole not cut) Around 2.5lbs</v>
       </c>
       <c r="C19" t="str">
-        <v>$5.99</v>
+        <v>$8.98</v>
       </c>
       <c r="D19" t="str">
         <v>Meat</v>
       </c>
       <c r="E19" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F19" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="20">
@@ -722,6 +779,9 @@
       <c r="E20" t="str">
         <v>Pork</v>
       </c>
+      <c r="F20" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -739,6 +799,9 @@
       <c r="E21" t="str">
         <v>Pork</v>
       </c>
+      <c r="F21" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -748,13 +811,16 @@
         <v>RWA Pork Bnls Ham 1.5lb</v>
       </c>
       <c r="C22" t="str">
-        <v>$4.31</v>
+        <v>$4.99</v>
       </c>
       <c r="D22" t="str">
         <v>Meat</v>
       </c>
       <c r="E22" t="str">
         <v>Pork</v>
+      </c>
+      <c r="F22" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="23">
@@ -773,6 +839,9 @@
       <c r="E23" t="str">
         <v>Pork</v>
       </c>
+      <c r="F23" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -790,6 +859,9 @@
       <c r="E24" t="str">
         <v>Pork</v>
       </c>
+      <c r="F24" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -807,6 +879,9 @@
       <c r="E25" t="str">
         <v>Pork</v>
       </c>
+      <c r="F25" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -824,6 +899,9 @@
       <c r="E26" t="str">
         <v>Pork</v>
       </c>
+      <c r="F26" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -841,6 +919,9 @@
       <c r="E27" t="str">
         <v>Pork</v>
       </c>
+      <c r="F27" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -858,6 +939,9 @@
       <c r="E28" t="str">
         <v>Pork</v>
       </c>
+      <c r="F28" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -875,6 +959,9 @@
       <c r="E29" t="str">
         <v>Pork</v>
       </c>
+      <c r="F29" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -892,6 +979,9 @@
       <c r="E30" t="str">
         <v>Pork</v>
       </c>
+      <c r="F30" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -909,6 +999,9 @@
       <c r="E31" t="str">
         <v>Pork</v>
       </c>
+      <c r="F31" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -926,6 +1019,9 @@
       <c r="E32" t="str">
         <v>Pork</v>
       </c>
+      <c r="F32" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -943,6 +1039,9 @@
       <c r="E33" t="str">
         <v>Pork</v>
       </c>
+      <c r="F33" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -960,6 +1059,9 @@
       <c r="E34" t="str">
         <v>Pork</v>
       </c>
+      <c r="F34" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -977,6 +1079,9 @@
       <c r="E35" t="str">
         <v>Pork</v>
       </c>
+      <c r="F35" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -994,6 +1099,9 @@
       <c r="E36" t="str">
         <v>Pork</v>
       </c>
+      <c r="F36" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1011,6 +1119,9 @@
       <c r="E37" t="str">
         <v>Beef</v>
       </c>
+      <c r="F37" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1028,6 +1139,9 @@
       <c r="E38" t="str">
         <v>Beef</v>
       </c>
+      <c r="F38" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1045,6 +1159,9 @@
       <c r="E39" t="str">
         <v>Beef</v>
       </c>
+      <c r="F39" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1054,13 +1171,16 @@
         <v>Ri Wang Scalded Beef Omasum Tripe 150g</v>
       </c>
       <c r="C40" t="str">
-        <v>$5.99</v>
+        <v>$7.99</v>
       </c>
       <c r="D40" t="str">
         <v>Meat</v>
       </c>
       <c r="E40" t="str">
         <v>Beef</v>
+      </c>
+      <c r="F40" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="41">
@@ -1071,13 +1191,16 @@
         <v>Ri Wang Sliced Beef Aorta 150g</v>
       </c>
       <c r="C41" t="str">
-        <v>$5.99</v>
+        <v>$7.99</v>
       </c>
       <c r="D41" t="str">
         <v>Meat</v>
       </c>
       <c r="E41" t="str">
         <v>Beef</v>
+      </c>
+      <c r="F41" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="42">
@@ -1088,13 +1211,16 @@
         <v>Ri Wang Sliced Beef Omasum Tripe 150g</v>
       </c>
       <c r="C42" t="str">
-        <v>$5.99</v>
+        <v>$7.99</v>
       </c>
       <c r="D42" t="str">
         <v>Meat</v>
       </c>
       <c r="E42" t="str">
         <v>Beef</v>
+      </c>
+      <c r="F42" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="43">
@@ -1105,13 +1231,16 @@
         <v>Ri Wang Sliced Beef Honeycomb Tripe 150g</v>
       </c>
       <c r="C43" t="str">
-        <v>$5.99</v>
+        <v>$7.99</v>
       </c>
       <c r="D43" t="str">
         <v>Meat</v>
       </c>
       <c r="E43" t="str">
         <v>Beef</v>
+      </c>
+      <c r="F43" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="44">
@@ -1130,6 +1259,9 @@
       <c r="E44" t="str">
         <v>Beef</v>
       </c>
+      <c r="F44" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1147,6 +1279,9 @@
       <c r="E45" t="str">
         <v>Beef</v>
       </c>
+      <c r="F45" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1164,6 +1299,9 @@
       <c r="E46" t="str">
         <v>Beef</v>
       </c>
+      <c r="F46" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1181,6 +1319,9 @@
       <c r="E47" t="str">
         <v>Beef</v>
       </c>
+      <c r="F47" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1198,6 +1339,9 @@
       <c r="E48" t="str">
         <v>Beef</v>
       </c>
+      <c r="F48" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1215,6 +1359,9 @@
       <c r="E49" t="str">
         <v>Beef</v>
       </c>
+      <c r="F49" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1232,6 +1379,9 @@
       <c r="E50" t="str">
         <v>Beef</v>
       </c>
+      <c r="F50" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1249,6 +1399,9 @@
       <c r="E51" t="str">
         <v>Beef</v>
       </c>
+      <c r="F51" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1266,6 +1419,9 @@
       <c r="E52" t="str">
         <v>Beef</v>
       </c>
+      <c r="F52" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1283,6 +1439,9 @@
       <c r="E53" t="str">
         <v>Beef</v>
       </c>
+      <c r="F53" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1300,6 +1459,9 @@
       <c r="E54" t="str">
         <v>Beef</v>
       </c>
+      <c r="F54" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1317,6 +1479,9 @@
       <c r="E55" t="str">
         <v>Beef</v>
       </c>
+      <c r="F55" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1334,6 +1499,9 @@
       <c r="E56" t="str">
         <v>Beef</v>
       </c>
+      <c r="F56" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1351,6 +1519,9 @@
       <c r="E57" t="str">
         <v>Beef</v>
       </c>
+      <c r="F57" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1368,6 +1539,9 @@
       <c r="E58" t="str">
         <v>Beef</v>
       </c>
+      <c r="F58" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1385,6 +1559,9 @@
       <c r="E59" t="str">
         <v>Beef</v>
       </c>
+      <c r="F59" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1402,6 +1579,9 @@
       <c r="E60" t="str">
         <v>Beef</v>
       </c>
+      <c r="F60" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1419,6 +1599,9 @@
       <c r="E61" t="str">
         <v>Beef</v>
       </c>
+      <c r="F61" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1436,6 +1619,9 @@
       <c r="E62" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F62" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1453,6 +1639,9 @@
       <c r="E63" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F63" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1470,6 +1659,9 @@
       <c r="E64" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F64" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1487,6 +1679,9 @@
       <c r="E65" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F65" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1504,6 +1699,9 @@
       <c r="E66" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F66" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1521,6 +1719,9 @@
       <c r="E67" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F67" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1538,6 +1739,9 @@
       <c r="E68" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F68" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1555,6 +1759,9 @@
       <c r="E69" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F69" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1572,6 +1779,9 @@
       <c r="E70" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F70" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1589,6 +1799,9 @@
       <c r="E71" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F71" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1606,6 +1819,9 @@
       <c r="E72" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F72" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1615,13 +1831,16 @@
         <v>Lamb Cube 2.2lb</v>
       </c>
       <c r="C73" t="str">
-        <v>$8.98</v>
+        <v>$10.98</v>
       </c>
       <c r="D73" t="str">
         <v>Meat</v>
       </c>
       <c r="E73" t="str">
         <v>Lamb</v>
+      </c>
+      <c r="F73" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="74">
@@ -1640,6 +1859,9 @@
       <c r="E74" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F74" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1649,13 +1871,16 @@
         <v>Lamb Loin Chop 1Kg</v>
       </c>
       <c r="C75" t="str">
-        <v>$9.99</v>
+        <v>$15.99</v>
       </c>
       <c r="D75" t="str">
         <v>Meat</v>
       </c>
       <c r="E75" t="str">
         <v>Lamb</v>
+      </c>
+      <c r="F75" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="76">
@@ -1674,6 +1899,9 @@
       <c r="E76" t="str">
         <v>Lamb</v>
       </c>
+      <c r="F76" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1689,7 +1917,10 @@
         <v>Meat</v>
       </c>
       <c r="E77" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F77" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="78">
@@ -1706,7 +1937,10 @@
         <v>Meat</v>
       </c>
       <c r="E78" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F78" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="79">
@@ -1723,7 +1957,10 @@
         <v>Meat</v>
       </c>
       <c r="E79" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F79" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="80">
@@ -1734,13 +1971,16 @@
         <v>Organic Chicken Drumstick 1pack</v>
       </c>
       <c r="C80" t="str">
-        <v>$10.99</v>
+        <v>$12.99</v>
       </c>
       <c r="D80" t="str">
         <v>Meat</v>
       </c>
       <c r="E80" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F80" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="81">
@@ -1757,7 +1997,10 @@
         <v>Meat</v>
       </c>
       <c r="E81" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F81" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="82">
@@ -1768,13 +2011,16 @@
         <v>Chicken Drumsticks 2lbs</v>
       </c>
       <c r="C82" t="str">
-        <v>$0.99</v>
+        <v>$2.27</v>
       </c>
       <c r="D82" t="str">
         <v>Meat</v>
       </c>
       <c r="E82" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F82" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="83">
@@ -1785,13 +2031,16 @@
         <v>Chicken Breast Skinless/ Boneless 1pack</v>
       </c>
       <c r="C83" t="str">
-        <v>$3.99</v>
+        <v>$5.31</v>
       </c>
       <c r="D83" t="str">
         <v>Meat</v>
       </c>
       <c r="E83" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F83" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="84">
@@ -1808,7 +2057,10 @@
         <v>Meat</v>
       </c>
       <c r="E84" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F84" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="85">
@@ -1825,7 +2077,10 @@
         <v>Meat</v>
       </c>
       <c r="E85" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F85" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="86">
@@ -1842,7 +2097,10 @@
         <v>Meat</v>
       </c>
       <c r="E86" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F86" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="87">
@@ -1859,7 +2117,10 @@
         <v>Meat</v>
       </c>
       <c r="E87" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F87" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="88">
@@ -1876,7 +2137,10 @@
         <v>Meat</v>
       </c>
       <c r="E88" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F88" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="89">
@@ -1893,7 +2157,10 @@
         <v>Meat</v>
       </c>
       <c r="E89" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F89" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="90">
@@ -1910,7 +2177,10 @@
         <v>Meat</v>
       </c>
       <c r="E90" t="str">
-        <v>Chichken</v>
+        <v>Chicken</v>
+      </c>
+      <c r="F90" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="91">
@@ -1929,6 +2199,9 @@
       <c r="E91" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F91" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1946,6 +2219,9 @@
       <c r="E92" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F92" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1963,6 +2239,9 @@
       <c r="E93" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F93" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1980,6 +2259,9 @@
       <c r="E94" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F94" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1997,6 +2279,9 @@
       <c r="E95" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F95" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -2006,13 +2291,16 @@
         <v>Duck Breast-Boneless</v>
       </c>
       <c r="C96" t="str">
-        <v>$11.98</v>
+        <v>$12.97</v>
       </c>
       <c r="D96" t="str">
         <v>Meat</v>
       </c>
       <c r="E96" t="str">
         <v>Poultry</v>
+      </c>
+      <c r="F96" t="str">
+        <v>In Stock</v>
       </c>
     </row>
     <row r="97">
@@ -2031,6 +2319,9 @@
       <c r="E97" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F97" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -2048,10 +2339,13 @@
       <c r="E98" t="str">
         <v>Poultry</v>
       </c>
+      <c r="F98" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F98"/>
   </ignoredErrors>
 </worksheet>
 </file>